--- a/【青春逐梦】“职在必得，一研为定”/【青春逐梦】“职在必得，一研为定”第5期/【青春逐梦】“职在必得，一研为定”第五次讲座工作安排.xlsx
+++ b/【青春逐梦】“职在必得，一研为定”/【青春逐梦】“职在必得，一研为定”第5期/【青春逐梦】“职在必得，一研为定”第五次讲座工作安排.xlsx
@@ -746,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +763,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1205,7 +1202,7 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1214,7 +1211,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1262,10 +1259,10 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1274,28 +1271,28 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="4" t="s">
